--- a/backend/data/Recipes.xlsx
+++ b/backend/data/Recipes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E1002100\Documents\Hackathon SDDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E1002100\Documents\FoodForThought_hackathon\foodforthought\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9120EA-EFEA-42BD-A574-CE65D58D3559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954AEC93-2710-46E4-9917-64B119BDA451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1376,8 +1376,8 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/backend/data/Recipes.xlsx
+++ b/backend/data/Recipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E1002100\Documents\FoodForThought_hackathon\foodforthought\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954AEC93-2710-46E4-9917-64B119BDA451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993555B4-DEAB-457B-B24C-607A786D20BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1376,8 +1376,8 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1432,39 +1432,39 @@
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>71</v>
@@ -1472,19 +1472,19 @@
     </row>
     <row r="5" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>71</v>
@@ -1492,19 +1492,19 @@
     </row>
     <row r="6" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2">
-        <v>3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>71</v>
@@ -1512,39 +1512,39 @@
     </row>
     <row r="7" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>71</v>
@@ -1552,19 +1552,19 @@
     </row>
     <row r="9" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>71</v>
@@ -1572,39 +1572,39 @@
     </row>
     <row r="10" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>71</v>
@@ -1612,16 +1612,16 @@
     </row>
     <row r="12" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2">
         <v>3</v>
@@ -1632,16 +1632,16 @@
     </row>
     <row r="13" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2">
         <v>3</v>
@@ -1652,19 +1652,19 @@
     </row>
     <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>71</v>
@@ -1672,19 +1672,19 @@
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>71</v>
@@ -1692,19 +1692,19 @@
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>71</v>
@@ -1712,19 +1712,19 @@
     </row>
     <row r="17" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>71</v>
@@ -1732,79 +1732,79 @@
     </row>
     <row r="18" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>71</v>
@@ -1812,19 +1812,19 @@
     </row>
     <row r="22" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="E22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>71</v>
@@ -1832,245 +1832,248 @@
     </row>
     <row r="23" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2">
-        <v>4.9000000000000004</v>
+        <v>3</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E26" s="2">
         <v>4</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="2">
         <v>4</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="2">
-        <v>4</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2">
         <v>3</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="2">
-        <v>4</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2">
-        <v>4.9000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="2">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F34">
+    <sortCondition ref="A2:A34"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
